--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H2">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I2">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J2">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>81.29404206034712</v>
+        <v>54.1586066052289</v>
       </c>
       <c r="R2">
-        <v>731.646378543124</v>
+        <v>487.4274594470601</v>
       </c>
       <c r="S2">
-        <v>0.0557355831307506</v>
+        <v>0.06310969597045504</v>
       </c>
       <c r="T2">
-        <v>0.06853988953592899</v>
+        <v>0.06823566375733128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H3">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I3">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J3">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>27.50704148252889</v>
+        <v>22.16581212819112</v>
       </c>
       <c r="R3">
-        <v>247.56337334276</v>
+        <v>199.49230915372</v>
       </c>
       <c r="S3">
-        <v>0.01885895889015348</v>
+        <v>0.02582927722910264</v>
       </c>
       <c r="T3">
-        <v>0.02319148534001062</v>
+        <v>0.02792721227693839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H4">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I4">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J4">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>25.07116242880089</v>
+        <v>14.37013075032823</v>
       </c>
       <c r="R4">
-        <v>225.640461859208</v>
+        <v>129.331176752954</v>
       </c>
       <c r="S4">
-        <v>0.01718890858813099</v>
+        <v>0.01674516091817884</v>
       </c>
       <c r="T4">
-        <v>0.02113776926151295</v>
+        <v>0.01810525549846057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H5">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I5">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J5">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>17.85001494609167</v>
+        <v>5.640672222753334</v>
       </c>
       <c r="R5">
-        <v>107.10008967655</v>
+        <v>33.84403333652001</v>
       </c>
       <c r="S5">
-        <v>0.01223805541831099</v>
+        <v>0.006572936996731829</v>
       </c>
       <c r="T5">
-        <v>0.01003302760868673</v>
+        <v>0.004737874393786615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H6">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I6">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J6">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>32.392531687328</v>
+        <v>30.77856929353067</v>
       </c>
       <c r="R6">
-        <v>291.532785185952</v>
+        <v>277.007123641776</v>
       </c>
       <c r="S6">
-        <v>0.02220847428565952</v>
+        <v>0.03586551191538165</v>
       </c>
       <c r="T6">
-        <v>0.02731049517737635</v>
+        <v>0.03877862147661515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>12.724914</v>
       </c>
       <c r="I7">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J7">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>187.1904440540787</v>
+        <v>154.7578449464067</v>
       </c>
       <c r="R7">
-        <v>1684.713996486708</v>
+        <v>1392.82060451766</v>
       </c>
       <c r="S7">
-        <v>0.1283386616218856</v>
+        <v>0.180335521089045</v>
       </c>
       <c r="T7">
-        <v>0.1578222958593193</v>
+        <v>0.1949829386960755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>12.724914</v>
       </c>
       <c r="I8">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J8">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
         <v>63.33865532121334</v>
@@ -948,10 +948,10 @@
         <v>570.04789789092</v>
       </c>
       <c r="S8">
-        <v>0.04342528430834888</v>
+        <v>0.07380698158717564</v>
       </c>
       <c r="T8">
-        <v>0.05340150802007872</v>
+        <v>0.07980181652093206</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>12.724914</v>
       </c>
       <c r="I9">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J9">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>57.72971682863733</v>
+        <v>41.06254953583267</v>
       </c>
       <c r="R9">
-        <v>519.567451457736</v>
+        <v>369.562945822494</v>
       </c>
       <c r="S9">
-        <v>0.03957976931481255</v>
+        <v>0.04784918186443798</v>
       </c>
       <c r="T9">
-        <v>0.04867255107622789</v>
+        <v>0.05173564274962933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>12.724914</v>
       </c>
       <c r="I10">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J10">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>41.10205544522501</v>
+        <v>16.11818198362</v>
       </c>
       <c r="R10">
-        <v>246.61233267135</v>
+        <v>96.70909190172</v>
       </c>
       <c r="S10">
-        <v>0.02817976533152935</v>
+        <v>0.01878212214722146</v>
       </c>
       <c r="T10">
-        <v>0.02310239281597952</v>
+        <v>0.01353844341221268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>12.724914</v>
       </c>
       <c r="I11">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J11">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>74.588152303776</v>
+        <v>87.949549535504</v>
       </c>
       <c r="R11">
-        <v>671.293370733984</v>
+        <v>791.5459458195361</v>
       </c>
       <c r="S11">
-        <v>0.05113799311652092</v>
+        <v>0.1024854530025565</v>
       </c>
       <c r="T11">
-        <v>0.06288608107092104</v>
+        <v>0.1108096434876519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H12">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I12">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J12">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>27.35464441410801</v>
+        <v>29.81435809293778</v>
       </c>
       <c r="R12">
-        <v>246.1917997269721</v>
+        <v>268.32922283644</v>
       </c>
       <c r="S12">
-        <v>0.01875447473288215</v>
+        <v>0.03474194025179955</v>
       </c>
       <c r="T12">
-        <v>0.02306299771692732</v>
+        <v>0.03756378979244185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H13">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I13">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J13">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>9.255848516920002</v>
+        <v>12.20229805814222</v>
       </c>
       <c r="R13">
-        <v>83.30263665228001</v>
+        <v>109.82068252328</v>
       </c>
       <c r="S13">
-        <v>0.006345853907442263</v>
+        <v>0.01421903865074475</v>
       </c>
       <c r="T13">
-        <v>0.007803706382812875</v>
+        <v>0.01537395364380996</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H14">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I14">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J14">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>8.436199208536001</v>
+        <v>7.910768959688445</v>
       </c>
       <c r="R14">
-        <v>75.925792876824</v>
+        <v>71.196920637196</v>
       </c>
       <c r="S14">
-        <v>0.005783898430660996</v>
+        <v>0.009218225047360237</v>
       </c>
       <c r="T14">
-        <v>0.007112651151322025</v>
+        <v>0.009966958247834942</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H15">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I15">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J15">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>6.006354208275002</v>
+        <v>3.105194761746667</v>
       </c>
       <c r="R15">
-        <v>36.03812524965001</v>
+        <v>18.63116857048</v>
       </c>
       <c r="S15">
-        <v>0.00411798510448695</v>
+        <v>0.003618407297132372</v>
       </c>
       <c r="T15">
-        <v>0.003376014965879309</v>
+        <v>0.002608203804159109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H16">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I16">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J16">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N16">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O16">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P16">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q16">
-        <v>10.899767849184</v>
+        <v>16.94362805886934</v>
       </c>
       <c r="R16">
-        <v>98.097910642656</v>
+        <v>152.492652529824</v>
       </c>
       <c r="S16">
-        <v>0.007472932845596575</v>
+        <v>0.01974399421362653</v>
       </c>
       <c r="T16">
-        <v>0.009189712621200075</v>
+        <v>0.02134766345599938</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H17">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I17">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J17">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N17">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O17">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P17">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q17">
-        <v>308.4670170310814</v>
+        <v>67.16945107904833</v>
       </c>
       <c r="R17">
-        <v>1850.802102186488</v>
+        <v>403.01670647429</v>
       </c>
       <c r="S17">
-        <v>0.2114864587255718</v>
+        <v>0.07827091392879044</v>
       </c>
       <c r="T17">
-        <v>0.1733812608890678</v>
+        <v>0.05641888231484329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H18">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I18">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J18">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>44.79778</v>
       </c>
       <c r="O18">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P18">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q18">
-        <v>104.3743774871867</v>
+        <v>27.49083712999667</v>
       </c>
       <c r="R18">
-        <v>626.2462649231201</v>
+        <v>164.94502277998</v>
       </c>
       <c r="S18">
-        <v>0.07155957122711432</v>
+        <v>0.03203439826090138</v>
       </c>
       <c r="T18">
-        <v>0.05866611395738475</v>
+        <v>0.0230908884895979</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H19">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I19">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J19">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N19">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O19">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P19">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q19">
-        <v>95.13153106808267</v>
+        <v>17.82235280662684</v>
       </c>
       <c r="R19">
-        <v>570.789186408496</v>
+        <v>106.934116839761</v>
       </c>
       <c r="S19">
-        <v>0.06522263161997414</v>
+        <v>0.02076795061038022</v>
       </c>
       <c r="T19">
-        <v>0.05347095117540476</v>
+        <v>0.0149698592055986</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H20">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I20">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J20">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N20">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O20">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P20">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q20">
-        <v>67.73117346402501</v>
+        <v>6.995764490045</v>
       </c>
       <c r="R20">
-        <v>270.9246938561</v>
+        <v>27.98305796018</v>
       </c>
       <c r="S20">
-        <v>0.04643681570594222</v>
+        <v>0.00815199278049778</v>
       </c>
       <c r="T20">
-        <v>0.02537995011528372</v>
+        <v>0.003917388109481636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H21">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I21">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J21">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N21">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O21">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P21">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q21">
-        <v>122.912176223904</v>
+        <v>38.17268822136401</v>
       </c>
       <c r="R21">
-        <v>737.473057343424</v>
+        <v>229.036129328184</v>
       </c>
       <c r="S21">
-        <v>0.08426917449403569</v>
+        <v>0.0444816973521003</v>
       </c>
       <c r="T21">
-        <v>0.06908572688720395</v>
+        <v>0.03206309371008267</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H22">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I22">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J22">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N22">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O22">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P22">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q22">
-        <v>39.70917953436622</v>
+        <v>59.73342927430889</v>
       </c>
       <c r="R22">
-        <v>357.382615809296</v>
+        <v>537.6008634687801</v>
       </c>
       <c r="S22">
-        <v>0.02722480296094307</v>
+        <v>0.06960590009733283</v>
       </c>
       <c r="T22">
-        <v>0.03347924041994931</v>
+        <v>0.07525950999338572</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H23">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I23">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J23">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>44.79778</v>
       </c>
       <c r="O23">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P23">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q23">
-        <v>13.43618820033778</v>
+        <v>24.44745265915111</v>
       </c>
       <c r="R23">
-        <v>120.92569380304</v>
+        <v>220.02707393236</v>
       </c>
       <c r="S23">
-        <v>0.009211914740866545</v>
+        <v>0.02848801697978246</v>
       </c>
       <c r="T23">
-        <v>0.01132819615921521</v>
+        <v>0.030801903223486</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H24">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I24">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J24">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N24">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O24">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P24">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q24">
-        <v>12.24634997582578</v>
+        <v>15.84932188330022</v>
       </c>
       <c r="R24">
-        <v>110.217149782432</v>
+        <v>142.643896949702</v>
       </c>
       <c r="S24">
-        <v>0.008396155976833079</v>
+        <v>0.01846882606644435</v>
       </c>
       <c r="T24">
-        <v>0.0103250306330978</v>
+        <v>0.01996892214553709</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H25">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I25">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J25">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N25">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O25">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P25">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q25">
-        <v>8.719082361033333</v>
+        <v>6.221295494793334</v>
       </c>
       <c r="R25">
-        <v>52.3144941662</v>
+        <v>37.32777296876</v>
       </c>
       <c r="S25">
-        <v>0.005977844469788928</v>
+        <v>0.007249523055138238</v>
       </c>
       <c r="T25">
-        <v>0.004900768672455075</v>
+        <v>0.005225568062980556</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H26">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I26">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J26">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N26">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O26">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P26">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q26">
-        <v>15.822572278912</v>
+        <v>33.94676501669867</v>
       </c>
       <c r="R26">
-        <v>142.403150510208</v>
+        <v>305.520885150288</v>
       </c>
       <c r="S26">
-        <v>0.01084803105175853</v>
+        <v>0.03955733268768202</v>
       </c>
       <c r="T26">
-        <v>0.01334018248675393</v>
+        <v>0.04277030353112787</v>
       </c>
     </row>
   </sheetData>
